--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/152.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/152.xlsx
@@ -479,13 +479,13 @@
         <v>-5.545041325649396</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.27843245835822</v>
+        <v>-11.29130219205164</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5586327561145176</v>
+        <v>0.604874769751494</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.229932560812038</v>
+        <v>-5.250186353308188</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.054336549587999</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.47446350880739</v>
+        <v>-11.48216178287832</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6277993920273564</v>
+        <v>0.6787808192930377</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.114209695994021</v>
+        <v>-5.134921719089632</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.552911908296735</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.02291316715013</v>
+        <v>-12.02782278071578</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6449895856585427</v>
+        <v>0.6933525523558788</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.808582978456768</v>
+        <v>-4.826964571646551</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.085274080331629</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.70929023593046</v>
+        <v>-12.71736818678381</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6570606888786141</v>
+        <v>0.7059997169009862</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.895254023268994</v>
+        <v>-4.910126879297195</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.623956434643353</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.31012219794296</v>
+        <v>-13.32130302456979</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6925670141853753</v>
+        <v>0.7377747358978554</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.199764711710822</v>
+        <v>-4.203757864077549</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.156830616255811</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.59850635263766</v>
+        <v>-13.60431933509938</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8017699121882124</v>
+        <v>0.8505518325764837</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.21468993695039</v>
+        <v>-4.21764879739262</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.668822801658874</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.17678027685386</v>
+        <v>-14.18017118328986</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8873935727731008</v>
+        <v>0.929825726283135</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.800292367404076</v>
+        <v>-3.799807952198933</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.15173282412318</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.96627232281562</v>
+        <v>-14.9741407968235</v>
       </c>
       <c r="F9" t="n">
-        <v>1.110001997990969</v>
+        <v>1.154502735349996</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.439337578057688</v>
+        <v>-3.431573842472545</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.609283638929397</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.56356936306085</v>
+        <v>-15.57027262211581</v>
       </c>
       <c r="F10" t="n">
-        <v>1.153664827968126</v>
+        <v>1.199618810942584</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.743586420442682</v>
+        <v>-2.733466070346028</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.050705202163106</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.16698050873316</v>
+        <v>-16.1775983663378</v>
       </c>
       <c r="F11" t="n">
-        <v>1.100876662910286</v>
+        <v>1.147040122730212</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.305583428872736</v>
+        <v>-2.288327773727341</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.5005232758970067</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.63932461065695</v>
+        <v>-16.65002102207864</v>
       </c>
       <c r="F12" t="n">
-        <v>1.131761405313918</v>
+        <v>1.176864388603664</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.880738201658725</v>
+        <v>-1.86560349957369</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01773125190265779</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.43694697668343</v>
+        <v>-17.44794451107048</v>
       </c>
       <c r="F13" t="n">
-        <v>1.349211463212146</v>
+        <v>1.397862460572</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.092267355318614</v>
+        <v>-1.075077161687428</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4699831657843367</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.24935055261822</v>
+        <v>-18.25996841022286</v>
       </c>
       <c r="F14" t="n">
-        <v>1.55510101770113</v>
+        <v>1.601709615817675</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8851471243625081</v>
+        <v>-0.8728272673884439</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8315336145186778</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.08909085688653</v>
+        <v>-19.10227480584814</v>
       </c>
       <c r="F15" t="n">
-        <v>1.606213367995229</v>
+        <v>1.651146151348033</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4512813004905479</v>
+        <v>-0.4401659353779225</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.078074816321259</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.07960212068015</v>
+        <v>-20.09565328396411</v>
       </c>
       <c r="F16" t="n">
-        <v>1.927027156828884</v>
+        <v>1.97379286257953</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1150786281396801</v>
+        <v>0.1268224237887083</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.198201816159947</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.79281841028602</v>
+        <v>-20.80922306574671</v>
       </c>
       <c r="F17" t="n">
-        <v>1.99358842447622</v>
+        <v>2.036478808585714</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2205764044383087</v>
+        <v>0.230264708541186</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.185626616321343</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.70105764302225</v>
+        <v>-21.71959634384613</v>
       </c>
       <c r="F18" t="n">
-        <v>2.113199703238229</v>
+        <v>2.15522599536017</v>
       </c>
       <c r="G18" t="n">
-        <v>0.778609628461199</v>
+        <v>0.7897119012709827</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.041827459501427</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.70345671779616</v>
+        <v>-22.72594929407824</v>
       </c>
       <c r="F19" t="n">
-        <v>2.21332963537175</v>
+        <v>2.255329742888007</v>
       </c>
       <c r="G19" t="n">
-        <v>1.000563438536981</v>
+        <v>1.009937527371657</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7739837283211237</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.06517086070737</v>
+        <v>-23.08687789881895</v>
       </c>
       <c r="F20" t="n">
-        <v>2.514086016251881</v>
+        <v>2.556426523642024</v>
       </c>
       <c r="G20" t="n">
-        <v>1.596917832977603</v>
+        <v>1.608831828563574</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3900038603628717</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.01561967780531</v>
+        <v>-24.0394607612801</v>
       </c>
       <c r="F21" t="n">
-        <v>2.644590090978207</v>
+        <v>2.681143800512306</v>
       </c>
       <c r="G21" t="n">
-        <v>1.709066499119829</v>
+        <v>1.717602680572634</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.09536780310819012</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.35696219749479</v>
+        <v>-24.38407635668001</v>
       </c>
       <c r="F22" t="n">
-        <v>2.727307260332232</v>
+        <v>2.765432046207339</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97675172302176</v>
+        <v>1.986492396336004</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.6720677370117577</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.8952653211352</v>
+        <v>-24.92017997344301</v>
       </c>
       <c r="F23" t="n">
-        <v>2.667187405683026</v>
+        <v>2.70324360770914</v>
       </c>
       <c r="G23" t="n">
-        <v>2.51680921524296</v>
+        <v>2.530163364141521</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.32113609680193</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.42552977083079</v>
+        <v>-25.45365203733482</v>
       </c>
       <c r="F24" t="n">
-        <v>2.553415293988426</v>
+        <v>2.588502665604252</v>
       </c>
       <c r="G24" t="n">
-        <v>2.311390983656278</v>
+        <v>2.323776302144551</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.0319678227802</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.571181639945</v>
+        <v>-25.59698656884604</v>
       </c>
       <c r="F25" t="n">
-        <v>2.679415616537198</v>
+        <v>2.714372065124607</v>
       </c>
       <c r="G25" t="n">
-        <v>2.222860831840527</v>
+        <v>2.232968089634339</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.781876381185354</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.6464885658906</v>
+        <v>-25.67501669378272</v>
       </c>
       <c r="F26" t="n">
-        <v>2.8414459565064</v>
+        <v>2.878811388816686</v>
       </c>
       <c r="G26" t="n">
-        <v>2.224170062124699</v>
+        <v>2.234355873735562</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.559229797201986</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.40357397896522</v>
+        <v>-25.43326732181025</v>
       </c>
       <c r="F27" t="n">
-        <v>2.545010035564038</v>
+        <v>2.578578700050224</v>
       </c>
       <c r="G27" t="n">
-        <v>1.940669336389963</v>
+        <v>1.949886317590538</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.338794703367136</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.49559977563971</v>
+        <v>-25.52645833343766</v>
       </c>
       <c r="F28" t="n">
-        <v>2.810233906531725</v>
+        <v>2.844771401428198</v>
       </c>
       <c r="G28" t="n">
-        <v>1.889949755181116</v>
+        <v>1.904508395941116</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.103849210034377</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.70558722091815</v>
+        <v>-25.74287409941139</v>
       </c>
       <c r="F29" t="n">
-        <v>2.644851937035041</v>
+        <v>2.675435556473313</v>
       </c>
       <c r="G29" t="n">
-        <v>1.787148993267883</v>
+        <v>1.805294925006516</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.82264872521765</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.36419233201731</v>
+        <v>-25.39336198274867</v>
       </c>
       <c r="F30" t="n">
-        <v>2.615210963401374</v>
+        <v>2.647339474574969</v>
       </c>
       <c r="G30" t="n">
-        <v>1.912337593040468</v>
+        <v>1.938207983455718</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.473039623318538</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.60328078315903</v>
+        <v>-24.62950466575101</v>
       </c>
       <c r="F31" t="n">
-        <v>2.528749395434615</v>
+        <v>2.558914061181951</v>
       </c>
       <c r="G31" t="n">
-        <v>1.380580620820922</v>
+        <v>1.411085686442143</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.024576582291691</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.72130789327719</v>
+        <v>-24.75468017322075</v>
       </c>
       <c r="F32" t="n">
-        <v>2.50869198748109</v>
+        <v>2.539877852850082</v>
       </c>
       <c r="G32" t="n">
-        <v>1.478301569231565</v>
+        <v>1.516766754980556</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.459484360962648</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.15373038048268</v>
+        <v>-24.18486387664031</v>
       </c>
       <c r="F33" t="n">
-        <v>2.56223950610375</v>
+        <v>2.592954048570439</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7224567415730359</v>
+        <v>0.7582510975423149</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.758491829385345</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.51325492546544</v>
+        <v>-23.53940025424037</v>
       </c>
       <c r="F34" t="n">
-        <v>2.538620991777276</v>
+        <v>2.569073688187131</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6546517051557366</v>
+        <v>0.6905507995477493</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.917528278353135</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.88104071354133</v>
+        <v>-22.90458067405076</v>
       </c>
       <c r="F35" t="n">
-        <v>2.413091992130806</v>
+        <v>2.443256657878143</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7043239021372452</v>
+        <v>0.7428414570976033</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.933619418437376</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.07808978025827</v>
+        <v>-22.10094894101993</v>
       </c>
       <c r="F36" t="n">
-        <v>2.270019306676424</v>
+        <v>2.297565511855415</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7171543589221367</v>
+        <v>0.7597567123691134</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.818497160561057</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.1374863748973</v>
+        <v>-21.15681061389169</v>
       </c>
       <c r="F37" t="n">
-        <v>2.31178375274153</v>
+        <v>2.337209004860162</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6542458437676431</v>
+        <v>0.6971885970885046</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.582361371820071</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.00459950105379</v>
+        <v>-21.02680404667335</v>
       </c>
       <c r="F38" t="n">
-        <v>2.14126960053089</v>
+        <v>2.168370667413263</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3651808893251731</v>
+        <v>0.4056491974089484</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.247538050668736</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.1542937083922</v>
+        <v>-20.17444276246562</v>
       </c>
       <c r="F39" t="n">
-        <v>2.380282681209441</v>
+        <v>2.406336363864476</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2014747345922304</v>
+        <v>0.2420346887958977</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.830737727944432</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.63750123832075</v>
+        <v>-19.65778121542258</v>
       </c>
       <c r="F40" t="n">
-        <v>2.215293480798009</v>
+        <v>2.245170115882828</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1153589941775405</v>
+        <v>-0.07976102275088728</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.360659799025833</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.6940175263346</v>
+        <v>-18.70913913611679</v>
       </c>
       <c r="F41" t="n">
-        <v>2.437129460148216</v>
+        <v>2.463680650311236</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1829545537493722</v>
+        <v>-0.146400844215273</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.856966949805519</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.41373750709893</v>
+        <v>-18.43804991347601</v>
       </c>
       <c r="F42" t="n">
-        <v>2.448048440718215</v>
+        <v>2.475123322994905</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.4266939557537864</v>
+        <v>-0.3919207994061619</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.350669683549008</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.50015661480328</v>
+        <v>-17.51815853121066</v>
       </c>
       <c r="F43" t="n">
-        <v>2.793632866528416</v>
+        <v>2.825761377702012</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.4260786175202252</v>
+        <v>-0.396555474612133</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.859021839547029</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.05321158039244</v>
+        <v>-17.07095165074298</v>
       </c>
       <c r="F44" t="n">
-        <v>2.727857137051585</v>
+        <v>2.759200110054677</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.7514354354399597</v>
+        <v>-0.7225145384625868</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.408710583950119</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.32700772636758</v>
+        <v>-16.34536313495168</v>
       </c>
       <c r="F45" t="n">
-        <v>2.678761001395112</v>
+        <v>2.708428159634463</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7973501415058931</v>
+        <v>-0.7688612905222971</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.008802859922782</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.85412684002728</v>
+        <v>-15.8703874801567</v>
       </c>
       <c r="F46" t="n">
-        <v>2.84068660294158</v>
+        <v>2.872527083452658</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.9596554198347712</v>
+        <v>-0.9317164455705277</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.678118041589053</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.12849904732745</v>
+        <v>-15.13898598190367</v>
       </c>
       <c r="F47" t="n">
-        <v>2.816046888993451</v>
+        <v>2.847861184898846</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.291846419837887</v>
+        <v>-1.265936752514111</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.418681583379545</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.47627979666118</v>
+        <v>-14.49039329912456</v>
       </c>
       <c r="F48" t="n">
-        <v>2.682165000133961</v>
+        <v>2.714084034462089</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.329774821170367</v>
+        <v>-1.303537846275548</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.239450520837094</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.8729733894116</v>
+        <v>-13.88301518569121</v>
       </c>
       <c r="F49" t="n">
-        <v>3.07142534822416</v>
+        <v>3.10729825801049</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.519770320009496</v>
+        <v>-1.495065144547159</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.134615062323181</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.27676301030224</v>
+        <v>-13.28430417673907</v>
       </c>
       <c r="F50" t="n">
-        <v>3.126229727919625</v>
+        <v>3.160950515055883</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.483714117983382</v>
+        <v>-1.455866789839031</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.102134736368398</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.42093226584145</v>
+        <v>-12.42885310906069</v>
       </c>
       <c r="F51" t="n">
-        <v>3.111802010188043</v>
+        <v>3.147308335494804</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.496924251550684</v>
+        <v>-1.469810092365469</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.131274360931559</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.38428691018746</v>
+        <v>-12.39892410476451</v>
       </c>
       <c r="F52" t="n">
-        <v>3.072420363240131</v>
+        <v>3.10813616539236</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.593898938699349</v>
+        <v>-1.567098994782335</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.2127094798746</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.59254298813691</v>
+        <v>-11.60008415457375</v>
       </c>
       <c r="F53" t="n">
-        <v>3.342750232316091</v>
+        <v>3.381870033207169</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.737233470210566</v>
+        <v>-1.712711586988013</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.331580895078996</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.3527574615907</v>
+        <v>-11.36234102727084</v>
       </c>
       <c r="F54" t="n">
-        <v>3.003423927264235</v>
+        <v>3.040501328912003</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.807722428710419</v>
+        <v>-1.781158146244557</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.471533078619419</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.77554401390468</v>
+        <v>-10.78482645661947</v>
       </c>
       <c r="F55" t="n">
-        <v>2.884179232981794</v>
+        <v>2.924032202832008</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.198174176359216</v>
+        <v>-2.171465878562094</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.616713443493856</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.22528761776978</v>
+        <v>-10.23053763120931</v>
       </c>
       <c r="F56" t="n">
-        <v>3.102323182930633</v>
+        <v>3.142856952528617</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.468608783857909</v>
+        <v>-2.445291392496795</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.750620101670841</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.620763626355918</v>
+        <v>-9.630229361310485</v>
       </c>
       <c r="F57" t="n">
-        <v>3.120285822429482</v>
+        <v>3.163254760356027</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.947237191145731</v>
+        <v>-2.929628043823609</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.862774676637891</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.485245199641211</v>
+        <v>-9.496975902987398</v>
       </c>
       <c r="F58" t="n">
-        <v>3.078730853209843</v>
+        <v>3.124894313029769</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.77914511496081</v>
+        <v>-2.753929339687645</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.941933001833954</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.889270481982999</v>
+        <v>-8.898173247915373</v>
       </c>
       <c r="F59" t="n">
-        <v>3.18079844616394</v>
+        <v>3.225940706362211</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.141998288219248</v>
+        <v>-3.122412203168026</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.986359097252902</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.774110586187176</v>
+        <v>-8.784139290163939</v>
       </c>
       <c r="F60" t="n">
-        <v>2.980590951108264</v>
+        <v>3.024554904050781</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.862988222359224</v>
+        <v>-2.837366585697966</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.993005747184313</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.33351531865457</v>
+        <v>-8.345795898720109</v>
       </c>
       <c r="F61" t="n">
-        <v>3.04275320500078</v>
+        <v>3.087424142296749</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.322017452292981</v>
+        <v>-3.296644569385716</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.96989246581868</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.960358503059693</v>
+        <v>-7.973228236753109</v>
       </c>
       <c r="F62" t="n">
-        <v>2.858884903891579</v>
+        <v>2.899680519546397</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.437557024871214</v>
+        <v>-3.413454095339596</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.921838259536448</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.768202774251679</v>
+        <v>-7.781740215390024</v>
       </c>
       <c r="F63" t="n">
-        <v>3.13748910836351</v>
+        <v>3.184123891085738</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.417944755214308</v>
+        <v>-3.392807533758194</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.861839511869527</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.503044364798201</v>
+        <v>-7.514788160447229</v>
       </c>
       <c r="F64" t="n">
-        <v>2.994023653823875</v>
+        <v>3.040946467208622</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.743419403859618</v>
+        <v>-3.721489796599727</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.795413468818153</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.217239393763321</v>
+        <v>-7.229965112125479</v>
       </c>
       <c r="F65" t="n">
-        <v>3.092189740531138</v>
+        <v>3.140605076439841</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.782447558630804</v>
+        <v>-3.756681906638287</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.733912313081514</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.003062411575525</v>
+        <v>-7.013510069243222</v>
       </c>
       <c r="F66" t="n">
-        <v>2.941680627062655</v>
+        <v>2.98852488663035</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.832761278451557</v>
+        <v>-3.809234410244975</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.679345667234993</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.093857531782895</v>
+        <v>-7.107787742006491</v>
       </c>
       <c r="F67" t="n">
-        <v>2.941785365485388</v>
+        <v>2.988236855967833</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.717221705873324</v>
+        <v>-3.69762252851926</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.638864701820115</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.786659737904635</v>
+        <v>-6.799608025415101</v>
       </c>
       <c r="F68" t="n">
-        <v>2.908007224153735</v>
+        <v>2.954982406749848</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.693930499117894</v>
+        <v>-3.670717846179513</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.609282144589441</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.95623124431067</v>
+        <v>-6.971470684818439</v>
       </c>
       <c r="F69" t="n">
-        <v>2.67017245073094</v>
+        <v>2.713377050108635</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.735891329725626</v>
+        <v>-3.712482292244619</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.592591824148725</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.711261165839134</v>
+        <v>-6.724497484012119</v>
       </c>
       <c r="F70" t="n">
-        <v>2.732910765948491</v>
+        <v>2.777922103118345</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.539860279276461</v>
+        <v>-3.518820948609807</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.580995739531907</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.628923673267519</v>
+        <v>-6.644568975163381</v>
       </c>
       <c r="F71" t="n">
-        <v>2.642390584100797</v>
+        <v>2.684704906885255</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.530381452019052</v>
+        <v>-3.511188136053081</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.572718248802059</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.797879841439993</v>
+        <v>-6.815724650213266</v>
       </c>
       <c r="F72" t="n">
-        <v>2.785410900343813</v>
+        <v>2.829584330131796</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.404603698618589</v>
+        <v>-3.384480829150856</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.557433903052694</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.943282956800203</v>
+        <v>-6.962698841914483</v>
       </c>
       <c r="F73" t="n">
-        <v>2.547366650075549</v>
+        <v>2.587114881503029</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.321127175699744</v>
+        <v>-3.301462536831471</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.532826987563882</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.215445748274004</v>
+        <v>-7.234822356479759</v>
       </c>
       <c r="F74" t="n">
-        <v>2.679625093382666</v>
+        <v>2.720525447460218</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.28840951089827</v>
+        <v>-3.269006718086832</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.490570621798147</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.383917501241336</v>
+        <v>-7.405284139479033</v>
       </c>
       <c r="F75" t="n">
-        <v>2.236319719161821</v>
+        <v>2.275570443081316</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.023905716586879</v>
+        <v>-3.004018508570297</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.432016993827478</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.820375601075957</v>
+        <v>-7.841428024045453</v>
       </c>
       <c r="F76" t="n">
-        <v>2.480229321103178</v>
+        <v>2.521312967420514</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.949397421114615</v>
+        <v>-2.930020812908861</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.354006486426254</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.14427917338026</v>
+        <v>-8.163511766254755</v>
       </c>
       <c r="F77" t="n">
-        <v>2.3308199610734</v>
+        <v>2.369520808273542</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.821066668660017</v>
+        <v>-2.802960013829909</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.263729681541705</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.498700903608627</v>
+        <v>-8.517802573454706</v>
       </c>
       <c r="F78" t="n">
-        <v>2.229616460106858</v>
+        <v>2.265594108315921</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.655527591529232</v>
+        <v>-2.637250736762183</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.164539612866394</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.960505701744831</v>
+        <v>-8.978795648814721</v>
       </c>
       <c r="F79" t="n">
-        <v>2.335166605616853</v>
+        <v>2.377323820767211</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.369748805100035</v>
+        <v>-2.353370334245036</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.068203279279757</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.362020445294885</v>
+        <v>-9.378438193058409</v>
       </c>
       <c r="F80" t="n">
-        <v>2.049911511301326</v>
+        <v>2.08916223522082</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.822241792561893</v>
+        <v>-1.804658829845455</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.980641859442057</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.00672471413</v>
+        <v>-10.01965990933763</v>
       </c>
       <c r="F81" t="n">
-        <v>2.193324596629593</v>
+        <v>2.23244439752067</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.922764493780666</v>
+        <v>-1.905338638698328</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.913031859557743</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.6650711625262</v>
+        <v>-10.6770898965349</v>
       </c>
       <c r="F82" t="n">
-        <v>2.17146045088391</v>
+        <v>2.211391974551175</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.698781376764416</v>
+        <v>-1.680805644962726</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.870779018567746</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.26877033886103</v>
+        <v>-11.27827535072412</v>
       </c>
       <c r="F83" t="n">
-        <v>1.85910428968601</v>
+        <v>1.893091907863131</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.297777233025189</v>
+        <v>-1.276947379204002</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.861461308816545</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.15764605569434</v>
+        <v>-12.1641922071152</v>
       </c>
       <c r="F84" t="n">
-        <v>1.914563284523561</v>
+        <v>1.951666870777013</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.150213887696094</v>
+        <v>-1.130064833622678</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.888097972520913</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.79402361992211</v>
+        <v>-12.79682537273025</v>
       </c>
       <c r="F85" t="n">
-        <v>1.83559051378227</v>
+        <v>1.872772653852772</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.8471008923044522</v>
+        <v>-0.8280515916697407</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.952882082383188</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.59533801534996</v>
+        <v>-13.59105683232072</v>
       </c>
       <c r="F86" t="n">
-        <v>1.800686434406228</v>
+        <v>1.838470820407449</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6385274157329142</v>
+        <v>-0.6211932067704689</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.055394748085611</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.42425098516816</v>
+        <v>-14.41765246453593</v>
       </c>
       <c r="F87" t="n">
-        <v>1.814983229109393</v>
+        <v>1.855098045016441</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.248154221901168</v>
+        <v>-0.2296940748943342</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.191768758648135</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.61952586540638</v>
+        <v>-15.61205016048376</v>
       </c>
       <c r="F88" t="n">
-        <v>1.836716451826658</v>
+        <v>1.877354959847376</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02912765998374842</v>
+        <v>0.04812459140709294</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.358645315801764</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.56812866780365</v>
+        <v>-16.55137052016624</v>
       </c>
       <c r="F89" t="n">
-        <v>1.581547469441417</v>
+        <v>1.617760779101631</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2164785136488485</v>
+        <v>0.2334592304345672</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.548160977797691</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.97043213287808</v>
+        <v>-17.9511078938837</v>
       </c>
       <c r="F90" t="n">
-        <v>1.539259331262642</v>
+        <v>1.578431501365086</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6738973903330738</v>
+        <v>0.6936667676240802</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.757486983732725</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.12747748881847</v>
+        <v>-19.10158091379753</v>
       </c>
       <c r="F91" t="n">
-        <v>1.233095829308878</v>
+        <v>1.270304153985063</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6425675096328234</v>
+        <v>0.6655575934228943</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.978407166958477</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.41634924207219</v>
+        <v>-20.38306860824852</v>
       </c>
       <c r="F92" t="n">
-        <v>1.027311013242627</v>
+        <v>1.06055237015777</v>
       </c>
       <c r="G92" t="n">
-        <v>1.135165404052767</v>
+        <v>1.165094408348953</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.211376567790967</v>
       </c>
       <c r="E93" t="n">
-        <v>-22.016569049205</v>
+        <v>-21.9786668324782</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8869222498707987</v>
+        <v>0.922035806092308</v>
       </c>
       <c r="G93" t="n">
-        <v>1.133162281717983</v>
+        <v>1.162384301660715</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.448364564519304</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.65614431868004</v>
+        <v>-23.61194470428637</v>
       </c>
       <c r="F94" t="n">
-        <v>0.989762288692557</v>
+        <v>1.025975598352771</v>
       </c>
       <c r="G94" t="n">
-        <v>1.290544854178372</v>
+        <v>1.323733841882147</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.690791250780741</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.33881944911004</v>
+        <v>-25.28332117736396</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2712698010414721</v>
+        <v>0.3054407114583771</v>
       </c>
       <c r="G95" t="n">
-        <v>1.263771094867042</v>
+        <v>1.300704481183551</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.927072361354437</v>
       </c>
       <c r="E96" t="n">
-        <v>-27.10841437810626</v>
+        <v>-27.05275899872608</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4289273118615374</v>
+        <v>0.4723675726903845</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9721400490675937</v>
+        <v>1.009976804280182</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.155318414140276</v>
       </c>
       <c r="E97" t="n">
-        <v>-29.02753649785783</v>
+        <v>-28.9646148904005</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.189893474255487</v>
+        <v>-0.1546359027027187</v>
       </c>
       <c r="G97" t="n">
-        <v>1.143819416231148</v>
+        <v>1.184065155166613</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.358775902634557</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.25955156322382</v>
+        <v>-31.1920214651662</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4681180019450076</v>
+        <v>-0.4259084175832828</v>
       </c>
       <c r="G98" t="n">
-        <v>1.013668833681549</v>
+        <v>1.058339770977518</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.535050750327696</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.44655529141995</v>
+        <v>-33.36940235077366</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4394065818131024</v>
+        <v>-0.3987942583980681</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6329053901356295</v>
+        <v>0.6797758343090088</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.663307827409296</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.42670063471681</v>
+        <v>-35.34194106611947</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5109822014488188</v>
+        <v>-0.4703175088224176</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4381442930621125</v>
+        <v>0.4853027678980098</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.743178720149621</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.25826143306292</v>
+        <v>-37.1602655462926</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8676819923716456</v>
+        <v>-0.8256033310383379</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1290404506471442</v>
+        <v>-0.08131900678905268</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.745374420876218</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.56579290121999</v>
+        <v>-39.46351583142042</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7796755326695629</v>
+        <v>-0.7317707965716872</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6634551603435606</v>
+        <v>-0.6184045462651812</v>
       </c>
     </row>
   </sheetData>
